--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_9_29 17.内存函数.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_9_29 17.内存函数.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A54FE06-25ED-461E-9FF7-F9059D429EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,7 +90,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -127,7 +134,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -150,13 +163,233 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297159</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>12207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECC3915-C011-A5A2-23E4-78C456FC81A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="336550" y="9048750"/>
+          <a:ext cx="10323809" cy="3942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>48080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>606278</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8622E744-165C-C564-0488-0E2C7C59F768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1077686" y="13836651"/>
+          <a:ext cx="6822021" cy="5802993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>270327</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>144845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>391972</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>20993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9416E6-4DC3-CC31-B4BE-872C29C9B471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="878113" y="19920559"/>
+          <a:ext cx="14100716" cy="5137577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>69473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>562430</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>52524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A51105-0DB2-94CD-F175-62EFC1641FF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1596572" y="25106616"/>
+          <a:ext cx="3220358" cy="3793051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>498928</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600286</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>64714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7579DF5B-6CD8-CC06-D695-4591F6E23E50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5361214" y="25744714"/>
+          <a:ext cx="5571429" cy="1171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,9 +427,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,7 +464,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +499,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,14 +672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" topLeftCell="B104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB130" sqref="AB130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -456,12 +689,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -469,12 +702,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_9_29 17.内存函数.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_9_29 17.内存函数.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A54FE06-25ED-461E-9FF7-F9059D429EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +15,61 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>倒着从后往前拷贝就不会受覆盖的影响</t>
+  </si>
+  <si>
+    <t>但是如果目标数据在前面，倒着拷贝也会出现问题，这时又需要从前往后了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以需要在函数内部分情况来处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>调试技巧，当F11进入函数后，需要在数组后面加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,元素个数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>才能看到全部的数据变化</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常memset就是设置全0用的，因为它修改的是每一个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来设置字符串数组也是可以的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,6 +79,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -298,15 +358,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>69473</xdr:rowOff>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>2798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>562430</xdr:colOff>
+      <xdr:colOff>438605</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>52524</xdr:rowOff>
+      <xdr:rowOff>157299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -329,8 +389,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1596572" y="25106616"/>
-          <a:ext cx="3220358" cy="3793051"/>
+          <a:off x="1628776" y="23834348"/>
+          <a:ext cx="3610429" cy="3583501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -342,15 +402,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>498928</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:colOff>413203</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>96610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>600286</xdr:colOff>
+      <xdr:colOff>514561</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>64714</xdr:rowOff>
+      <xdr:rowOff>169489</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -373,8 +433,578 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5361214" y="25744714"/>
-          <a:ext cx="5571429" cy="1171429"/>
+          <a:off x="5899603" y="24442510"/>
+          <a:ext cx="6273558" cy="1101579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>195666</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>67291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="707571" y="27889200"/>
+          <a:ext cx="13204095" cy="5782291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>237684</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>104462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9744075" y="33775650"/>
+          <a:ext cx="3523809" cy="2504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>599569</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>170671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3409950" y="35090100"/>
+          <a:ext cx="4047619" cy="6228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>532331</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>75489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="41709975"/>
+          <a:ext cx="8552381" cy="5685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>579257</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>75429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="48425100"/>
+          <a:ext cx="14142857" cy="6171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>113594</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>18245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11610975" y="41414700"/>
+          <a:ext cx="5647619" cy="6438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>142417</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>142748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17735550" y="46101000"/>
+          <a:ext cx="3666667" cy="1019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75131</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>46917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="55587900"/>
+          <a:ext cx="8552381" cy="5666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>561269</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>9342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="56149875"/>
+          <a:ext cx="5647619" cy="1466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>618426</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>152267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10115550" y="57721500"/>
+          <a:ext cx="5590476" cy="1066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>364131</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>112768</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>46902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9965331" y="58921650"/>
+          <a:ext cx="10035637" cy="4733202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685108</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>37864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="65532000"/>
+          <a:ext cx="5533333" cy="1885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>646980</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>113436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915275" y="64522350"/>
+          <a:ext cx="5761905" cy="6914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>656215</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>37606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="72551925"/>
+          <a:ext cx="8076190" cy="3952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>494394</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>9305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="73856850"/>
+          <a:ext cx="7247619" cy="1761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -387,9 +1017,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -427,9 +1057,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,7 +1094,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,7 +1129,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -672,15 +1302,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="M179:X387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB130" sqref="AB130"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC405" sqref="AC405"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="179" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V179" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="21:21" x14ac:dyDescent="0.15">
+      <c r="U203" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M225" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="24:24" x14ac:dyDescent="0.15">
+      <c r="X296" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P373" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V387" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -689,12 +1350,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -702,12 +1363,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
